--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Lgr6</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,28 +552,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.225468</v>
+        <v>0.044174</v>
       </c>
       <c r="N2">
-        <v>0.676404</v>
+        <v>0.132522</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2474193313505733</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2474193313505733</v>
       </c>
       <c r="Q2">
-        <v>0.365670465816</v>
+        <v>0.07164265952133332</v>
       </c>
       <c r="R2">
-        <v>3.291034192344</v>
+        <v>0.644783935692</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.2474193313505733</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.2474193313505733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.621828666666667</v>
+      </c>
+      <c r="H3">
+        <v>4.865486</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.134365</v>
+      </c>
+      <c r="N3">
+        <v>0.403095</v>
+      </c>
+      <c r="O3">
+        <v>0.7525806686494267</v>
+      </c>
+      <c r="P3">
+        <v>0.7525806686494266</v>
+      </c>
+      <c r="Q3">
+        <v>0.2179170087966666</v>
+      </c>
+      <c r="R3">
+        <v>1.96125307917</v>
+      </c>
+      <c r="S3">
+        <v>0.7525806686494267</v>
+      </c>
+      <c r="T3">
+        <v>0.7525806686494266</v>
       </c>
     </row>
   </sheetData>
